--- a/packages/excel-node-generator/src/__test__/test.xlsx
+++ b/packages/excel-node-generator/src/__test__/test.xlsx
@@ -7,14 +7,14 @@
     <sheet sheetId="1" name="发货单" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'发货单'!$A1:$J14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'发货单'!$A1:$K14</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Unionfab AM Technology（Shanghai）Co.,Ltd</t>
   </si>
@@ -26,13 +26,184 @@
   </si>
   <si>
     <t>上海市松江区新格路 901 号 5 幢 3 楼</t>
+  </si>
+  <si>
+    <r>
+      <t>客户名称：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+      </rPr>
+      <t xml:space="preserve">上海隽工自动化科技有限公司  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>订单号：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+      </rPr>
+      <t xml:space="preserve">XJ20201021-764483-2  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>联系人：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+      </rPr>
+      <t xml:space="preserve">方梦琪  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>快递单号：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>电话：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+      </rPr>
+      <t xml:space="preserve">16602103254  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>地址：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+      </rPr>
+      <t xml:space="preserve">上海市松江区洞泾镇振业路280号1栋A8507室  </t>
+    </r>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>文件名称</t>
+  </si>
+  <si>
+    <t>加工工艺</t>
+  </si>
+  <si>
+    <t>材料</t>
+  </si>
+  <si>
+    <t>增值后处理</t>
+  </si>
+  <si>
+    <t>数量（件）</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>DSH-MCS-TO220-08-01-V1_Rescaled(9.99899)缩放.stl</t>
+  </si>
+  <si>
+    <t>SLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">尼龙 </t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>注：若收货有差异或损耗，请于24小时内反馈至我司，过后视为正常签收；也可搜索 优联智造 微信小程序获取更多。</t>
+  </si>
+  <si>
+    <r>
+      <t>制单人：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>发货人：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>客户确认签章：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>制单日期：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+      </rPr>
+      <t>2020-10-21</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>发货日期：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+      </rPr>
+      <t>2020-10-21</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>签收日期：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+      </rPr>
+      <t>2020-10-21</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -42,16 +213,19 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <b/>
       <sz val="16"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="9"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -61,7 +235,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -70,52 +244,104 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick"/>
+      <left style="thin"/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="thick"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thick"/>
+      <right/>
       <top/>
-      <bottom style="thick"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -188,9 +414,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -553,100 +779,229 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="12" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="25" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="12" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="1" customWidth="1"/>
-    <col min="4" max="5" width="8" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="6:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="2" t="s">
+    <row r="1" ht="25" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" ht="30" customHeight="1" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" ht="50" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" ht="40" customHeight="1" spans="4:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="6:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="4" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" ht="22.25" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="10:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="10:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="10:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="10:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="10:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="10:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="10:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="10:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="10:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="7"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" ht="11.25" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" ht="22.25" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="G6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" ht="22.25" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="G7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" ht="22.25" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" ht="22.25" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" ht="25" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" ht="25" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" ht="25" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="23">
     <mergeCell ref="F1:J1"/>
-    <mergeCell ref="D2:E3"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="F4:J4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:J14"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/packages/excel-node-generator/src/__test__/test.xlsx
+++ b/packages/excel-node-generator/src/__test__/test.xlsx
@@ -4,206 +4,217 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="发货单" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="对账单" state="visible" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'发货单'!$A1:$K14</definedName>
-  </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Unionfab AM Technology（Shanghai）Co.,Ltd</t>
-  </si>
-  <si>
-    <t>优联三维打印科技发展（上海）有限公司</t>
-  </si>
-  <si>
-    <t>发货单</t>
-  </si>
-  <si>
-    <t>上海市松江区新格路 901 号 5 幢 3 楼</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
   <si>
     <r>
-      <t>客户名称：</t>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve">樱方（上海）智能科技有限公司 
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
-        <u/>
+        <sz val="12"/>
       </rPr>
-      <t xml:space="preserve">上海隽工自动化科技有限公司  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>订单号：</t>
+      <t xml:space="preserve">账单日期：2020-09-01~2020-09-30 
+</t>
     </r>
     <r>
       <rPr>
-        <u/>
+        <sz val="12"/>
       </rPr>
-      <t xml:space="preserve">XJ20201021-764483-2  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>联系人：</t>
+      <t xml:space="preserve">导出时间：2020/11/12 15:11 
+</t>
     </r>
     <r>
       <rPr>
-        <u/>
+        <color rgb="DC143C"/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
       </rPr>
-      <t xml:space="preserve">方梦琪  </t>
+      <t xml:space="preserve">账单总金额：￥2245 
+</t>
     </r>
   </si>
   <si>
+    <t>订单编号</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>文件名称</t>
+  </si>
+  <si>
+    <t>图片预览</t>
+  </si>
+  <si>
+    <t>打印材料</t>
+  </si>
+  <si>
+    <t>增值后处理</t>
+  </si>
+  <si>
+    <t>单件价格（元）</t>
+  </si>
+  <si>
+    <t>数量（件）</t>
+  </si>
+  <si>
+    <t>其他费用（元）</t>
+  </si>
+  <si>
+    <t>其他费用说明</t>
+  </si>
+  <si>
+    <t>付款方式</t>
+  </si>
+  <si>
+    <t>订单金额（元）</t>
+  </si>
+  <si>
+    <t>XJ20200904-379418-X</t>
+  </si>
+  <si>
+    <t>2020 年 09 月 04 日</t>
+  </si>
+  <si>
+    <t>dianjiduangai-3 1件.STL</t>
+  </si>
+  <si>
+    <t>【白料】UTR 3100</t>
+  </si>
+  <si>
     <r>
-      <t>快递单号：</t>
+      <t xml:space="preserve">物流费：12 元 
+</t>
     </r>
-    <r>
-      <rPr>
-        <u/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>电话：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-      </rPr>
-      <t xml:space="preserve">16602103254  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>地址：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-      </rPr>
-      <t xml:space="preserve">上海市松江区洞泾镇振业路280号1栋A8507室  </t>
-    </r>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>文件名称</t>
-  </si>
-  <si>
-    <t>加工工艺</t>
-  </si>
-  <si>
-    <t>材料</t>
-  </si>
-  <si>
-    <t>增值后处理</t>
-  </si>
-  <si>
-    <t>数量（件）</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>DSH-MCS-TO220-08-01-V1_Rescaled(9.99899)缩放.stl</t>
-  </si>
-  <si>
-    <t>SLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">尼龙 </t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>注：若收货有差异或损耗，请于24小时内反馈至我司，过后视为正常签收；也可搜索 优联智造 微信小程序获取更多。</t>
-  </si>
-  <si>
-    <r>
-      <t>制单人：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>发货人：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>客户确认签章：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>制单日期：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-      </rPr>
-      <t>2020-10-21</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>发货日期：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-      </rPr>
-      <t>2020-10-21</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>签收日期：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-      </rPr>
-      <t>2020-10-21</t>
-    </r>
+  </si>
+  <si>
+    <t>月结30天(发票日）</t>
+  </si>
+  <si>
+    <t>dianjiduangai-4  1件.STL</t>
+  </si>
+  <si>
+    <t>gear17  3件.STL</t>
+  </si>
+  <si>
+    <t>gear18  3件.STL</t>
+  </si>
+  <si>
+    <t>gear55  1件.STL</t>
+  </si>
+  <si>
+    <t>gear57   1件.STL</t>
+  </si>
+  <si>
+    <t>planet carrier   1件.STL</t>
+  </si>
+  <si>
+    <t>XJ20200907-782692-4</t>
+  </si>
+  <si>
+    <t>2020 年 09 月 07 日</t>
+  </si>
+  <si>
+    <t>磁吸杯底2份.STEP</t>
+  </si>
+  <si>
+    <t>电泳室配件电极板6份.STEP</t>
+  </si>
+  <si>
+    <t>电泳室直筒（新）2份.STEP</t>
+  </si>
+  <si>
+    <t>抗体槽4份黄色.STEP</t>
+  </si>
+  <si>
+    <t>样品槽3份红色.STEP</t>
+  </si>
+  <si>
+    <t>XJ20200909-287487-7</t>
+  </si>
+  <si>
+    <t>2020 年 09 月 09 日</t>
+  </si>
+  <si>
+    <t>外壳^扭矩.STEP</t>
+  </si>
+  <si>
+    <t>【耐高温】RT 6180</t>
+  </si>
+  <si>
+    <t>喷漆</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>XJ20200914-443927-4</t>
+  </si>
+  <si>
+    <t>2020 年 09 月 14 日</t>
+  </si>
+  <si>
+    <t>涡扇______.stl</t>
+  </si>
+  <si>
+    <t>定子______.stl</t>
+  </si>
+  <si>
+    <t>定子水平轴____________.stl</t>
+  </si>
+  <si>
+    <t>涡轮零件9__________9.stl</t>
+  </si>
+  <si>
+    <t>XJ20200920-923753-1</t>
+  </si>
+  <si>
+    <t>2020 年 09 月 20 日</t>
+  </si>
+  <si>
+    <t>电泳室配件电极板4份.STEP</t>
+  </si>
+  <si>
+    <t>抗体槽6份.STEP</t>
+  </si>
+  <si>
+    <t>样品槽2份.STEP</t>
+  </si>
+  <si>
+    <t>XJ20200925-431131-7</t>
+  </si>
+  <si>
+    <t>2020 年 09 月 25 日</t>
+  </si>
+  <si>
+    <t>直形涡轮__________.stl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -211,21 +222,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-    </font>
-    <font>
-      <sz val="9"/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -235,7 +231,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -243,104 +239,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -364,15 +269,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -410,13 +315,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -434,6 +339,622 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -775,235 +1296,693 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="25" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="12" customHeight="1"/>
+  <dimension ref="A1:L26"/>
+  <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="22" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="1" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="7" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="F1" s="3" t="s">
+    <row r="1" ht="100" customHeight="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" ht="50" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="F2" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" ht="30" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="F3" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" ht="22.25" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="F4" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" ht="11.25" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" ht="22.25" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="G6" s="8" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" ht="22.25" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="G7" s="8" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" ht="22.25" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" ht="22.25" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="9" t="s">
+    </row>
+    <row r="3" ht="80" customHeight="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <v>40.57</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
+      <c r="L3" s="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" ht="80" customHeight="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>32.12</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" ht="80" customHeight="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" ht="80" customHeight="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" ht="25" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>1.16</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" ht="80" customHeight="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" ht="25" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>51.41</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" ht="80" customHeight="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="12" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>21.52</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" ht="80" customHeight="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="8" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>32.84</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" ht="80" customHeight="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" ht="25" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14" t="s">
+      <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>36.65</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="1">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" ht="80" customHeight="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="H11" s="1">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" ht="80" customHeight="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
+        <v>106.73</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" ht="80" customHeight="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>10.65</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" ht="80" customHeight="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1">
+        <v>11</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" ht="80" customHeight="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1085</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="16" ht="80" customHeight="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
+        <v>37</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" ht="80" customHeight="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
+        <v>22</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" ht="80" customHeight="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1">
+        <v>23</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" ht="80" customHeight="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1">
+        <v>18</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" ht="80" customHeight="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1">
+        <v>37.15</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="1">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="21" ht="80" customHeight="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" ht="80" customHeight="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1">
+        <v>106.73</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" ht="80" customHeight="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1">
+        <v>10.65</v>
+      </c>
+      <c r="H23" s="1">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" ht="80" customHeight="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1">
+        <v>10.29</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" ht="80" customHeight="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1">
+        <v>25</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" ht="80" customHeight="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1">
+        <v>25</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:J14"/>
+  <mergeCells count="31">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="I3:I9"/>
+    <mergeCell ref="J3:J9"/>
+    <mergeCell ref="K3:K9"/>
+    <mergeCell ref="L3:L9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="K10:K14"/>
+    <mergeCell ref="L10:L14"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="I20:I24"/>
+    <mergeCell ref="J20:J24"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="L20:L24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
   </mergeCells>
-  <printOptions verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
   <drawing r:id="rId1"/>
